--- a/documents/Unit_Test_TC.xlsx
+++ b/documents/Unit_Test_TC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="8310"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Description</t>
   </si>
@@ -209,25 +209,66 @@
  + Date of first record is: 2012-11-10
  </t>
   </si>
+  <si>
+    <t>UN_1</t>
+  </si>
+  <si>
+    <t>UN_2</t>
+  </si>
+  <si>
+    <t>UN_3</t>
+  </si>
+  <si>
+    <t>UN_4</t>
+  </si>
+  <si>
+    <t>UN_5</t>
+  </si>
+  <si>
+    <t>UN_6</t>
+  </si>
+  <si>
+    <t>UN_7</t>
+  </si>
+  <si>
+    <t>UN_8</t>
+  </si>
+  <si>
+    <t>UN_9</t>
+  </si>
+  <si>
+    <t>UN_10</t>
+  </si>
+  <si>
+    <t>UN_11</t>
+  </si>
+  <si>
+    <t>UN_12</t>
+  </si>
+  <si>
+    <t>UN_13</t>
+  </si>
+  <si>
+    <t>UN_14</t>
+  </si>
+  <si>
+    <t>UN_15</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -237,8 +278,30 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -252,18 +315,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="32"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="62"/>
+        <bgColor indexed="32"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -273,16 +336,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="8"/>
       </left>
       <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="8"/>
       </right>
       <top style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="8"/>
       </top>
       <bottom style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -290,53 +366,146 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="2"/>
+    <cellStyle name="RowLevel_1" xfId="1" builtinId="1" iLevel="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -394,7 +563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,7 +598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,282 +807,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="128.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="128.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="221.25" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="96.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="228" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="270.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="224.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="302.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="33" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="34" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="36" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="37" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="38" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="39" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="40" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="41" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="43" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="44" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="45" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="46" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="47" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="48" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="49" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="50" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="51" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="52" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="53" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="57" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="25" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="42.75" customHeight="1"/>
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="15.75"/>
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="15.75"/>
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:4" s="1" customFormat="1" ht="15.75"/>
+    <row r="33" s="1" customFormat="1" ht="15.75"/>
+    <row r="34" s="1" customFormat="1" ht="15.75"/>
+    <row r="35" s="1" customFormat="1" ht="15.75"/>
+    <row r="36" s="1" customFormat="1" ht="15.75"/>
+    <row r="37" s="1" customFormat="1" ht="15.75"/>
+    <row r="38" s="1" customFormat="1" ht="15.75"/>
+    <row r="39" s="1" customFormat="1" ht="15.75"/>
+    <row r="40" s="1" customFormat="1" ht="15.75"/>
+    <row r="41" s="1" customFormat="1" ht="15.75"/>
+    <row r="42" s="1" customFormat="1" ht="15.75"/>
+    <row r="43" s="1" customFormat="1" ht="15.75"/>
+    <row r="44" s="1" customFormat="1" ht="15.75"/>
+    <row r="45" s="1" customFormat="1" ht="15.75"/>
+    <row r="46" s="1" customFormat="1" ht="15.75"/>
+    <row r="47" s="1" customFormat="1" ht="15.75"/>
+    <row r="48" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="49" s="1" customFormat="1" ht="15.75"/>
+    <row r="50" s="1" customFormat="1" ht="15.75"/>
+    <row r="51" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="52" s="1" customFormat="1" ht="15.75"/>
+    <row r="53" s="1" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="54" s="1" customFormat="1" ht="15.75"/>
+    <row r="55" s="1" customFormat="1" ht="15.75"/>
+    <row r="56" s="1" customFormat="1" ht="15.75"/>
+    <row r="57" s="6" customFormat="1" ht="15.75"/>
+    <row r="58" s="6" customFormat="1" ht="15.75"/>
+    <row r="59" s="6" customFormat="1" ht="15.75"/>
+    <row r="60" s="6" customFormat="1" ht="15.75"/>
+    <row r="61" s="6" customFormat="1" ht="15.75"/>
+    <row r="62" s="6" customFormat="1" ht="15.75"/>
+    <row r="63" s="6" customFormat="1" ht="15.75"/>
+    <row r="64" s="6" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="65" s="6" customFormat="1" ht="15.75"/>
+    <row r="66" s="6" customFormat="1" ht="15.75"/>
+    <row r="67" s="6" customFormat="1" ht="15.75"/>
+    <row r="68" s="6" customFormat="1" ht="15.75"/>
+    <row r="69" s="6" customFormat="1" ht="15.75"/>
+    <row r="70" s="6" customFormat="1" ht="15.75"/>
+    <row r="71" s="6" customFormat="1" ht="15.75"/>
+    <row r="72" s="6" customFormat="1" ht="15.75"/>
+    <row r="73" s="6" customFormat="1" ht="15.75"/>
+    <row r="74" s="6" customFormat="1" ht="15.75"/>
+    <row r="75" s="6" customFormat="1" ht="15.75"/>
+    <row r="76" s="6" customFormat="1" ht="15.75"/>
+    <row r="77" s="6" customFormat="1" ht="15.75"/>
+    <row r="78" s="6" customFormat="1" ht="15.75"/>
+    <row r="79" s="6" customFormat="1" ht="15.75"/>
+    <row r="80" s="6" customFormat="1" ht="15.75"/>
+    <row r="81" s="6" customFormat="1" ht="15.75"/>
+    <row r="82" s="6" customFormat="1" ht="15.75"/>
+    <row r="83" s="6" customFormat="1" ht="15.75"/>
+    <row r="84" s="6" customFormat="1" ht="15.75"/>
+    <row r="85" s="6" customFormat="1" ht="15.75"/>
+    <row r="86" s="6" customFormat="1" ht="15.75"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:XFD2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -926,7 +1154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -938,7 +1166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
